--- a/TCO/Pruebas/P7.xlsx
+++ b/TCO/Pruebas/P7.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,13 +29,26 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002980b9"/>
+        <bgColor rgb="002980b9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -56,11 +69,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -426,58 +444,82 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="34" customWidth="1" min="4" max="4"/>
+    <col width="34" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Refer.</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Concepto</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Nombre</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Cargos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Abonos</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ColExtra1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ColExtra2</t>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Cargo 16</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Abono 16</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Cargo 8</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Abono 8</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Fórmula 16</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Fórmula 8</t>
         </is>
       </c>
     </row>
@@ -503,17 +545,23 @@
           <t>Santander 56175</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4" t="n">
         <v>-1.28</v>
       </c>
-      <c r="G2" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.36</v>
+      <c r="I2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2024</v>
       </c>
     </row>
     <row r="3">
@@ -540,17 +588,23 @@
           <t>Rentas</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="n">
         <v>-38000</v>
       </c>
-      <c r="G3" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
+      <c r="I3" s="4" t="n">
+        <v>3040</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-6080</v>
       </c>
     </row>
     <row r="4">
@@ -575,16 +629,22 @@
           <t>Papeleria</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4" t="n">
         <v>-4637.93</v>
       </c>
-      <c r="G4" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="G4" s="4" t="n">
+        <v>742.0700000000001</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-1484.1388</v>
+      </c>
+      <c r="K4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -612,16 +672,22 @@
           <t>Honorarios</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="4" t="n">
         <v>-21551.7</v>
       </c>
-      <c r="G5" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="G5" s="4" t="n">
+        <v>3448.27</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-6896.542</v>
+      </c>
+      <c r="K5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -649,17 +715,23 @@
           <t xml:space="preserve">Mantenimiento de Eq. Transporte </t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
         <v>-6474.93</v>
       </c>
-      <c r="G6" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
+      <c r="I6" s="4" t="n">
+        <v>517.99</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-1035.9844</v>
       </c>
     </row>
     <row r="7">
@@ -684,16 +756,22 @@
           <t>Laptop Toshiba Dynabook</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4" t="n">
         <v>-4998.28</v>
       </c>
-      <c r="G7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="G7" s="4" t="n">
+        <v>799.72</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1599.4448</v>
+      </c>
+      <c r="K7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -719,17 +797,23 @@
           <t>Mensajeria y paqueteria</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="n">
         <v>-500</v>
       </c>
-      <c r="G8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
+      <c r="I8" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-80</v>
       </c>
     </row>
     <row r="9">
@@ -756,16 +840,22 @@
           <t>Soporte Tecnico Garantias</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="4" t="n">
         <v>-500</v>
       </c>
-      <c r="G9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="G9" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-160</v>
+      </c>
+      <c r="K9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -793,17 +883,23 @@
           <t>Bancomer</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="n">
         <v>-2137.06</v>
       </c>
-      <c r="G10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
+      <c r="I10" s="4" t="n">
+        <v>170.96</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-341.9248</v>
       </c>
     </row>
     <row r="11">
@@ -828,16 +924,22 @@
           <t>Facturas</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="4" t="n">
         <v>-1234.5</v>
       </c>
-      <c r="G11" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="G11" s="4" t="n">
+        <v>197.52</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-395.04</v>
+      </c>
+      <c r="K11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -863,16 +965,22 @@
           <t>Telefono</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="4" t="n">
         <v>-343.97</v>
       </c>
-      <c r="G12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="G12" s="4" t="n">
+        <v>55.04</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-110.0752</v>
+      </c>
+      <c r="K12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -898,16 +1006,22 @@
           <t xml:space="preserve">Sistema de seguridad </t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="4" t="n">
         <v>-1831.9</v>
       </c>
-      <c r="G13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="G13" s="4" t="n">
+        <v>293.1</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-586.2040000000001</v>
+      </c>
+      <c r="K13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -933,17 +1047,23 @@
           <t>Copias</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="n">
         <v>-625</v>
       </c>
-      <c r="G14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
+      <c r="I14" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-100</v>
       </c>
     </row>
     <row r="15">
@@ -968,16 +1088,22 @@
           <t>Bolsas de plastico</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="4" t="n">
         <v>-106.29</v>
       </c>
-      <c r="G15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="G15" s="4" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-34.0164</v>
+      </c>
+      <c r="K15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1003,17 +1129,23 @@
           <t>Publicidad</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="n">
         <v>-298.15</v>
       </c>
-      <c r="G16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
+      <c r="I16" s="4" t="n">
+        <v>23.85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-47.702</v>
       </c>
     </row>
     <row r="17">
@@ -1038,17 +1170,23 @@
           <t>Papeleria</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="n">
         <v>-698.4299999999999</v>
       </c>
-      <c r="G17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
+      <c r="I17" s="4" t="n">
+        <v>55.87</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-111.7444</v>
       </c>
     </row>
     <row r="18">
@@ -1073,17 +1211,23 @@
           <t>Facturas</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="n">
         <v>-1377.05</v>
       </c>
-      <c r="G18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
+      <c r="I18" s="4" t="n">
+        <v>110.16</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-220.324</v>
       </c>
     </row>
     <row r="19">
@@ -1108,17 +1252,23 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="n">
         <v>-185.18</v>
       </c>
-      <c r="G19" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
+      <c r="I19" s="4" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-29.6244</v>
       </c>
     </row>
     <row r="20">
@@ -1143,16 +1293,22 @@
           <t>Bolsas de plastico</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="4" t="n">
         <v>-264.98</v>
       </c>
-      <c r="G20" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="G20" s="4" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-84.7968</v>
+      </c>
+      <c r="K20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1178,17 +1334,23 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="n">
         <v>-162.04</v>
       </c>
-      <c r="G21" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
+      <c r="I21" s="4" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-25.9232</v>
       </c>
     </row>
     <row r="22">
@@ -1213,17 +1375,23 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="n">
         <v>-555.5599999999999</v>
       </c>
-      <c r="G22" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
+      <c r="I22" s="4" t="n">
+        <v>44.44</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-88.88479999999998</v>
       </c>
     </row>
     <row r="23">
@@ -1248,16 +1416,22 @@
           <t>Mensajeria y paqueteria</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="4" t="n">
         <v>-334.32</v>
       </c>
-      <c r="G23" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="G23" s="4" t="n">
+        <v>53.49</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-106.9812</v>
+      </c>
+      <c r="K23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1283,16 +1457,22 @@
           <t>Mensajeria y paqueteria</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="4" t="n">
         <v>-957.29</v>
       </c>
-      <c r="G24" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="G24" s="4" t="n">
+        <v>153.17</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-306.3364</v>
+      </c>
+      <c r="K24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,17 +1498,23 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4" t="n">
         <v>-76.86</v>
       </c>
-      <c r="G25" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
+      <c r="I25" s="4" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-12.2988</v>
       </c>
     </row>
     <row r="26">
@@ -1353,17 +1539,23 @@
           <t>Papeleria</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="n">
         <v>-36.1</v>
       </c>
-      <c r="G26" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
+      <c r="I26" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-5.778</v>
       </c>
     </row>
     <row r="27">
@@ -1388,16 +1580,22 @@
           <t>Agua</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="4" t="n">
         <v>-237</v>
       </c>
-      <c r="G27" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="G27" s="4" t="n">
+        <v>37.92</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-75.84</v>
+      </c>
+      <c r="K27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1423,17 +1621,23 @@
           <t>Agua</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="n">
         <v>-414.14</v>
       </c>
-      <c r="G28" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
+      <c r="I28" s="4" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-66.2612</v>
       </c>
     </row>
     <row r="29">
@@ -1458,17 +1662,23 @@
           <t>Agua</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="n">
         <v>-122</v>
       </c>
-      <c r="G29" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
+      <c r="I29" s="4" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-19.52</v>
       </c>
     </row>
     <row r="30">
@@ -1493,17 +1703,23 @@
           <t>Agua</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4" t="n">
         <v>-150.6</v>
       </c>
-      <c r="G30" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
+      <c r="I30" s="4" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-24.098</v>
       </c>
     </row>
     <row r="31">
@@ -1528,16 +1744,22 @@
           <t>Articulos de limpieza</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="4" t="n">
         <v>-300</v>
       </c>
-      <c r="G31" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="G31" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-96</v>
+      </c>
+      <c r="K31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1563,16 +1785,22 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="4" t="n">
         <v>-111.21</v>
       </c>
-      <c r="G32" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="G32" s="4" t="n">
+        <v>17.79</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-35.5836</v>
+      </c>
+      <c r="K32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1598,17 +1826,23 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4" t="n">
         <v>-125.93</v>
       </c>
-      <c r="G33" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
+      <c r="I33" s="4" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-20.1444</v>
       </c>
     </row>
     <row r="34">
@@ -1633,17 +1867,23 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="4" t="n">
         <v>-82.88</v>
       </c>
-      <c r="G34" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
+      <c r="I34" s="4" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-13.2604</v>
       </c>
     </row>
     <row r="35">
@@ -1668,17 +1908,23 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4" t="n">
         <v>-114.82</v>
       </c>
-      <c r="G35" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
+      <c r="I35" s="4" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-18.3756</v>
       </c>
     </row>
     <row r="36">
@@ -1703,17 +1949,23 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="4" t="n">
         <v>-73.15000000000001</v>
       </c>
-      <c r="G36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
+      <c r="I36" s="4" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-11.702</v>
       </c>
     </row>
     <row r="37">
@@ -1738,16 +1990,22 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" s="4" t="n">
         <v>-343.1</v>
       </c>
-      <c r="G37" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="G37" s="4" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-109.796</v>
+      </c>
+      <c r="K37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1773,17 +2031,23 @@
           <t>Articulos de limpieza</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4" t="n">
         <v>-155.37</v>
       </c>
-      <c r="G38" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
+      <c r="I38" s="4" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-24.8596</v>
       </c>
     </row>
     <row r="39">
@@ -1808,17 +2072,23 @@
           <t>Papeleria</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4" t="n">
         <v>-1615.45</v>
       </c>
-      <c r="G39" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
+      <c r="I39" s="4" t="n">
+        <v>129.24</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-258.476</v>
       </c>
     </row>
     <row r="40">
@@ -1843,17 +2113,23 @@
           <t>Papeleria</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="4" t="n">
         <v>-1809.51</v>
       </c>
-      <c r="G40" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
+      <c r="I40" s="4" t="n">
+        <v>144.76</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-289.5208</v>
       </c>
     </row>
     <row r="41">
@@ -1878,16 +2154,22 @@
           <t>Bolsas de plastico</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" s="4" t="n">
         <v>-188.88</v>
       </c>
-      <c r="G41" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="G41" s="4" t="n">
+        <v>30.22</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-60.4408</v>
+      </c>
+      <c r="K41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1913,16 +2195,22 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="4" t="n">
         <v>-162.04</v>
       </c>
-      <c r="G42" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="G42" s="4" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-51.8564</v>
+      </c>
+      <c r="K42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1948,16 +2236,22 @@
           <t>Mensajeria y paqueteria</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="4" t="n">
         <v>-771.3200000000001</v>
       </c>
-      <c r="G43" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="G43" s="4" t="n">
+        <v>123.41</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-246.8212</v>
+      </c>
+      <c r="K43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1983,17 +2277,23 @@
           <t>Accesorios para computadoras</t>
         </is>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="4" t="n">
         <v>-578.7</v>
       </c>
-      <c r="G44" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
+      <c r="I44" s="4" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-92.596</v>
       </c>
     </row>
     <row r="45">
@@ -2018,16 +2318,22 @@
           <t>Coffe Break</t>
         </is>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" s="4" t="n">
         <v>-389</v>
       </c>
-      <c r="G45" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="G45" s="4" t="n">
+        <v>62.24</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-124.48</v>
+      </c>
+      <c r="K45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2053,17 +2359,23 @@
           <t xml:space="preserve">Mantenimiento de Eq. Transporte </t>
         </is>
       </c>
-      <c r="F46" t="n">
+      <c r="F46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="4" t="n">
         <v>-936.77</v>
       </c>
-      <c r="G46" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
+      <c r="I46" s="4" t="n">
+        <v>74.94</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-149.8816</v>
       </c>
     </row>
     <row r="47">
@@ -2088,16 +2400,22 @@
           <t>Mensajeria y paqueteria</t>
         </is>
       </c>
-      <c r="F47" t="n">
+      <c r="F47" s="4" t="n">
         <v>-318.92</v>
       </c>
-      <c r="G47" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
+      <c r="G47" s="4" t="n">
+        <v>51.03</v>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-102.0572</v>
+      </c>
+      <c r="K47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2125,17 +2443,23 @@
           <t>Gastos varios</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="4" t="n">
         <v>-430</v>
       </c>
-      <c r="G48" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
+      <c r="I48" s="4" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-68.8</v>
       </c>
     </row>
     <row r="49">
@@ -2160,17 +2484,23 @@
           <t>Papeleria</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="4" t="n">
         <v>-946.3</v>
       </c>
-      <c r="G49" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
+      <c r="I49" s="4" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-151.404</v>
       </c>
     </row>
     <row r="50">
@@ -2195,17 +2525,23 @@
           <t>Papeleria</t>
         </is>
       </c>
-      <c r="F50" t="n">
+      <c r="F50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="4" t="n">
         <v>-1257.4</v>
       </c>
-      <c r="G50" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
+      <c r="I50" s="4" t="n">
+        <v>100.59</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-201.182</v>
       </c>
     </row>
     <row r="51">
@@ -2230,17 +2566,23 @@
           <t>Articulos de limpieza</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="4" t="n">
         <v>-1058.33</v>
       </c>
-      <c r="G51" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
+      <c r="I51" s="4" t="n">
+        <v>84.67</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-169.3364</v>
       </c>
     </row>
     <row r="52">
@@ -2267,16 +2609,22 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="F52" s="4" t="n">
         <v>-439.66</v>
       </c>
-      <c r="G52" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
+      <c r="G52" s="4" t="n">
+        <v>70.34999999999999</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-140.6956</v>
+      </c>
+      <c r="K52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2302,17 +2650,23 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4" t="n">
         <v>-106.48</v>
       </c>
-      <c r="G53" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
+      <c r="I53" s="4" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-17.0384</v>
       </c>
     </row>
     <row r="54">
@@ -2337,16 +2691,22 @@
           <t>Mensajeria y paqueteria</t>
         </is>
       </c>
-      <c r="F54" t="n">
+      <c r="F54" s="4" t="n">
         <v>-682.8200000000001</v>
       </c>
-      <c r="G54" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
+      <c r="G54" s="4" t="n">
+        <v>109.25</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-218.5012</v>
+      </c>
+      <c r="K54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2372,16 +2732,22 @@
           <t>Impuestos y Derechos</t>
         </is>
       </c>
-      <c r="F55" t="n">
+      <c r="F55" s="4" t="n">
         <v>-985.67</v>
       </c>
-      <c r="G55" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
+      <c r="G55" s="4" t="n">
+        <v>157.71</v>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-315.4172</v>
+      </c>
+      <c r="K55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2407,16 +2773,22 @@
           <t>Agua</t>
         </is>
       </c>
-      <c r="F56" t="n">
+      <c r="F56" s="4" t="n">
         <v>-267.34</v>
       </c>
-      <c r="G56" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
+      <c r="G56" s="4" t="n">
+        <v>42.77</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-85.5444</v>
+      </c>
+      <c r="K56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2442,16 +2814,22 @@
           <t>Bolsas de plastico</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="F57" s="4" t="n">
         <v>-280.8</v>
       </c>
-      <c r="G57" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
+      <c r="G57" s="4" t="n">
+        <v>44.93</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-89.858</v>
+      </c>
+      <c r="K57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2477,17 +2855,23 @@
           <t>Mantenimiento de Instalaciones</t>
         </is>
       </c>
-      <c r="F58" t="n">
+      <c r="F58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="4" t="n">
         <v>-735.64</v>
       </c>
-      <c r="G58" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
+      <c r="I58" s="4" t="n">
+        <v>58.85</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-117.7012</v>
       </c>
     </row>
     <row r="59">
@@ -2512,16 +2896,22 @@
           <t>Gastos de viaje y hospedaje</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="F59" s="4" t="n">
         <v>-651.74</v>
       </c>
-      <c r="G59" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
+      <c r="G59" s="4" t="n">
+        <v>104.28</v>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-208.5584</v>
+      </c>
+      <c r="K59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2547,16 +2937,22 @@
           <t>Gastos de viaje y hospedaje</t>
         </is>
       </c>
-      <c r="F60" t="n">
+      <c r="F60" s="4" t="n">
         <v>-423.73</v>
       </c>
-      <c r="G60" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
+      <c r="G60" s="4" t="n">
+        <v>67.8</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-135.5968</v>
+      </c>
+      <c r="K60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2582,16 +2978,22 @@
           <t>Impuesto Hospedaje</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="F61" s="4" t="n">
         <v>-8.470000000000001</v>
       </c>
-      <c r="G61" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
+      <c r="G61" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-2.7152</v>
+      </c>
+      <c r="K61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2617,17 +3019,23 @@
           <t>Gastos de viaje y hospedaje</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="F62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4" t="n">
         <v>-552.02</v>
       </c>
-      <c r="G62" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
+      <c r="I62" s="4" t="n">
+        <v>44.16</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-88.32159999999999</v>
       </c>
     </row>
     <row r="63">
@@ -2652,17 +3060,23 @@
           <t>Impuesto Hospedaje</t>
         </is>
       </c>
-      <c r="F63" t="n">
+      <c r="F63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="4" t="n">
         <v>-16.56</v>
       </c>
-      <c r="G63" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
+      <c r="I63" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-2.6448</v>
       </c>
     </row>
     <row r="64">
@@ -2687,17 +3101,23 @@
           <t>Publicidad</t>
         </is>
       </c>
-      <c r="F64" t="n">
+      <c r="F64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="4" t="n">
         <v>-100</v>
       </c>
-      <c r="G64" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
+      <c r="I64" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-16</v>
       </c>
     </row>
     <row r="65">
@@ -2724,17 +3144,23 @@
           <t>Santander</t>
         </is>
       </c>
-      <c r="F65" t="n">
+      <c r="F65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="4" t="n">
         <v>-4936.66</v>
       </c>
-      <c r="G65" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
+      <c r="I65" s="4" t="n">
+        <v>394.93</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-789.8628</v>
       </c>
     </row>
     <row r="66">
@@ -2761,17 +3187,23 @@
           <t>Azteca</t>
         </is>
       </c>
-      <c r="F66" t="n">
+      <c r="F66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4" t="n">
         <v>-24</v>
       </c>
-      <c r="G66" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
+      <c r="I66" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-3.84</v>
       </c>
     </row>
     <row r="67">
@@ -2796,16 +3228,22 @@
           <t>Comisiones Billpocket</t>
         </is>
       </c>
-      <c r="F67" t="n">
+      <c r="F67" s="4" t="n">
         <v>-4777.01</v>
       </c>
-      <c r="G67" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
+      <c r="G67" s="4" t="n">
+        <v>764.3200000000001</v>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1528.6416</v>
+      </c>
+      <c r="K67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2820,58 +3258,82 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Refer.</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Concepto</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Nombre</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Cargos</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Abonos</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ColExtra1</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ColExtra2</t>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Cargo 16</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Abono 16</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Cargo 8</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Abono 8</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Fórmula 16</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Fórmula 8</t>
         </is>
       </c>
     </row>
@@ -2899,16 +3361,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="4" t="n">
         <v>-25862.07</v>
       </c>
-      <c r="G2" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="G2" s="4" t="n">
+        <v>4137.93</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-8275.861199999999</v>
+      </c>
+      <c r="K2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2936,17 +3404,23 @@
           <t>IVA de Gastos 8%</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="n">
         <v>-3040</v>
       </c>
-      <c r="G3" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
+      <c r="I3" s="4" t="n">
+        <v>243.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-486.4</v>
       </c>
     </row>
     <row r="4">
@@ -2973,16 +3447,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4" t="n">
         <v>-86206.89999999999</v>
       </c>
-      <c r="G4" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="G4" s="4" t="n">
+        <v>13793.1</v>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-27586.204</v>
+      </c>
+      <c r="K4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,16 +3488,22 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-7892.12</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3045,17 +3531,23 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
         <v>-298488.45</v>
       </c>
-      <c r="G6" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
+      <c r="I6" s="4" t="n">
+        <v>23879.08</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-47758.156</v>
       </c>
     </row>
     <row r="7">
@@ -3080,16 +3572,22 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4" t="n">
         <v>-742.0700000000001</v>
       </c>
-      <c r="G7" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="G7" s="4" t="n">
+        <v>118.73</v>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-237.4612</v>
+      </c>
+      <c r="K7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3117,16 +3615,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="4" t="n">
         <v>-86206.89999999999</v>
       </c>
-      <c r="G8" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="G8" s="4" t="n">
+        <v>13793.1</v>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-27586.204</v>
+      </c>
+      <c r="K8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3152,16 +3656,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="4" t="n">
         <v>-23237.1</v>
       </c>
-      <c r="G9" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="G9" s="4" t="n">
+        <v>3717.94</v>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-7435.876</v>
+      </c>
+      <c r="K9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3187,16 +3697,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="4" t="n">
         <v>-44374.14</v>
       </c>
-      <c r="G10" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="G10" s="4" t="n">
+        <v>7099.86</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-14199.7224</v>
+      </c>
+      <c r="K10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3222,16 +3738,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="4" t="n">
         <v>-18655.17</v>
       </c>
-      <c r="G11" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="G11" s="4" t="n">
+        <v>2984.83</v>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-5969.6572</v>
+      </c>
+      <c r="K11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3259,16 +3781,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="4" t="n">
         <v>-25862.07</v>
       </c>
-      <c r="G12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="G12" s="4" t="n">
+        <v>4137.93</v>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-8275.861199999999</v>
+      </c>
+      <c r="K12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,16 +3822,22 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-3550.86</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="F13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3329,16 +3863,22 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-199</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3364,16 +3904,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="4" t="n">
         <v>-147231.9</v>
       </c>
-      <c r="G15" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="G15" s="4" t="n">
+        <v>23557.1</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-47114.204</v>
+      </c>
+      <c r="K15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3401,16 +3947,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="4" t="n">
         <v>-16163.79</v>
       </c>
-      <c r="G16" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="G16" s="4" t="n">
+        <v>2586.21</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-5172.4164</v>
+      </c>
+      <c r="K16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3438,16 +3990,22 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="4" t="n">
         <v>-3448.27</v>
       </c>
-      <c r="G17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="G17" s="4" t="n">
+        <v>551.72</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1103.4432</v>
+      </c>
+      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3475,17 +4033,23 @@
           <t>IVA de Gastos 8%</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="n">
         <v>-518</v>
       </c>
-      <c r="G18" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
+      <c r="I18" s="4" t="n">
+        <v>41.44</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-82.88</v>
       </c>
     </row>
     <row r="19">
@@ -3510,16 +4074,22 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-836.4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3545,16 +4115,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" s="4" t="n">
         <v>-20387.95</v>
       </c>
-      <c r="G20" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="G20" s="4" t="n">
+        <v>3262.07</v>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-6524.142</v>
+      </c>
+      <c r="K20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,16 +4156,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" s="4" t="n">
         <v>-28705.17</v>
       </c>
-      <c r="G21" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="G21" s="4" t="n">
+        <v>4592.83</v>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-9185.6572</v>
+      </c>
+      <c r="K21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3617,17 +4199,23 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="n">
         <v>-277777.78</v>
       </c>
-      <c r="G22" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
+      <c r="I22" s="4" t="n">
+        <v>22222.22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-44444.4424</v>
       </c>
     </row>
     <row r="23">
@@ -3654,16 +4242,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="4" t="n">
         <v>-25862.07</v>
       </c>
-      <c r="G23" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="G23" s="4" t="n">
+        <v>4137.93</v>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-8275.861199999999</v>
+      </c>
+      <c r="K23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3691,17 +4285,23 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="n">
         <v>-111111.11</v>
       </c>
-      <c r="G24" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
+      <c r="I24" s="4" t="n">
+        <v>8888.889999999999</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-17777.7788</v>
       </c>
     </row>
     <row r="25">
@@ -3728,16 +4328,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="4" t="n">
         <v>-86206.89999999999</v>
       </c>
-      <c r="G25" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="G25" s="4" t="n">
+        <v>13793.1</v>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-27586.204</v>
+      </c>
+      <c r="K25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3763,16 +4369,22 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" s="4" t="n">
         <v>-799.72</v>
       </c>
-      <c r="G26" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="G26" s="4" t="n">
+        <v>127.96</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-255.9152</v>
+      </c>
+      <c r="K26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3798,16 +4410,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="4" t="n">
         <v>-176585.34</v>
       </c>
-      <c r="G27" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="G27" s="4" t="n">
+        <v>28253.65</v>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-56507.3044</v>
+      </c>
+      <c r="K27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3835,17 +4453,23 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="n">
         <v>-212962.96</v>
       </c>
-      <c r="G28" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
+      <c r="I28" s="4" t="n">
+        <v>17037.04</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-34074.0768</v>
       </c>
     </row>
     <row r="29">
@@ -3872,17 +4496,23 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4" t="n">
         <v>-92592.59</v>
       </c>
-      <c r="G29" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
+      <c r="I29" s="4" t="n">
+        <v>7407.41</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-14814.8172</v>
       </c>
     </row>
     <row r="30">
@@ -3907,16 +4537,22 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-323</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="F30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,16 +4580,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="4" t="n">
         <v>-13920</v>
       </c>
-      <c r="G31" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="G31" s="4" t="n">
+        <v>2227.2</v>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-4454.4</v>
+      </c>
+      <c r="K31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3979,16 +4621,22 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-1821.28</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="F32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4016,16 +4664,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="4" t="n">
         <v>-86206.89999999999</v>
       </c>
-      <c r="G33" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="G33" s="4" t="n">
+        <v>13793.1</v>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-27586.204</v>
+      </c>
+      <c r="K33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,16 +4705,22 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-323</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="F34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,16 +4746,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="4" t="n">
         <v>-261469.83</v>
       </c>
-      <c r="G35" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="G35" s="4" t="n">
+        <v>41835.17</v>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-83670.3428</v>
+      </c>
+      <c r="K35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4123,16 +4789,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="4" t="n">
         <v>-8620.690000000001</v>
       </c>
-      <c r="G36" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="G36" s="4" t="n">
+        <v>1379.31</v>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-2758.6204</v>
+      </c>
+      <c r="K36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4160,16 +4832,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" s="4" t="n">
         <v>-25862.07</v>
       </c>
-      <c r="G37" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="G37" s="4" t="n">
+        <v>4137.93</v>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-8275.861199999999</v>
+      </c>
+      <c r="K37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4197,17 +4875,23 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4" t="n">
         <v>-277777.78</v>
       </c>
-      <c r="G38" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
+      <c r="I38" s="4" t="n">
+        <v>22222.22</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-44444.4424</v>
       </c>
     </row>
     <row r="39">
@@ -4234,17 +4918,23 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="4" t="n">
         <v>-222222.22</v>
       </c>
-      <c r="G39" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
+      <c r="I39" s="4" t="n">
+        <v>17777.78</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-35555.5576</v>
       </c>
     </row>
     <row r="40">
@@ -4271,16 +4961,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" s="4" t="n">
         <v>-43102.58</v>
       </c>
-      <c r="G40" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="G40" s="4" t="n">
+        <v>6896.41</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-13792.8228</v>
+      </c>
+      <c r="K40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,16 +5004,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" s="4" t="n">
         <v>-86206.89999999999</v>
       </c>
-      <c r="G41" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="G41" s="4" t="n">
+        <v>13793.1</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-27586.204</v>
+      </c>
+      <c r="K41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4343,17 +5045,23 @@
           <t>IVA de Gastos 8%</t>
         </is>
       </c>
-      <c r="F42" t="n">
+      <c r="F42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="4" t="n">
         <v>-40</v>
       </c>
-      <c r="G42" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
+      <c r="I42" s="4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-6.4</v>
       </c>
     </row>
     <row r="43">
@@ -4380,16 +5088,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="F43" s="4" t="n">
         <v>-20719.81</v>
       </c>
-      <c r="G43" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="G43" s="4" t="n">
+        <v>3315.17</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-6630.3396</v>
+      </c>
+      <c r="K43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4415,16 +5129,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="4" t="n">
         <v>-14775.86</v>
       </c>
-      <c r="G44" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="G44" s="4" t="n">
+        <v>2364.14</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-4728.277599999999</v>
+      </c>
+      <c r="K44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4452,16 +5172,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F45" t="n">
+      <c r="F45" s="4" t="n">
         <v>-34482.76</v>
       </c>
-      <c r="G45" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="G45" s="4" t="n">
+        <v>5517.24</v>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-11034.4816</v>
+      </c>
+      <c r="K45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4487,16 +5213,22 @@
           <t>BBVA Bancomer</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-836.4</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="F46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4524,17 +5256,23 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F47" t="n">
+      <c r="F47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="4" t="n">
         <v>-92592.59</v>
       </c>
-      <c r="G47" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
+      <c r="I47" s="4" t="n">
+        <v>7407.41</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-14814.8172</v>
       </c>
     </row>
     <row r="48">
@@ -4559,16 +5297,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F48" t="n">
+      <c r="F48" s="4" t="n">
         <v>-110226.73</v>
       </c>
-      <c r="G48" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
+      <c r="G48" s="4" t="n">
+        <v>17636.28</v>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-35272.5568</v>
+      </c>
+      <c r="K48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4596,16 +5340,22 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="F49" s="4" t="n">
         <v>-80</v>
       </c>
-      <c r="G49" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
+      <c r="G49" s="4" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-25.6</v>
+      </c>
+      <c r="K49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4631,16 +5381,22 @@
           <t>Compras EF 16%</t>
         </is>
       </c>
-      <c r="F50" t="n">
+      <c r="F50" s="4" t="n">
         <v>-8676.719999999999</v>
       </c>
-      <c r="G50" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
+      <c r="G50" s="4" t="n">
+        <v>1388.28</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-2776.5552</v>
+      </c>
+      <c r="K50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4668,16 +5424,22 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" s="4" t="n">
         <v>-1135.62</v>
       </c>
-      <c r="G51" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="G51" s="4" t="n">
+        <v>181.7</v>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-363.3992</v>
+      </c>
+      <c r="K51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4703,16 +5465,22 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="F52" s="4" t="n">
         <v>-197.52</v>
       </c>
-      <c r="G52" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
+      <c r="G52" s="4" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-63.2032</v>
+      </c>
+      <c r="K52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4740,17 +5508,23 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="4" t="n">
         <v>-381624.36</v>
       </c>
-      <c r="G53" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
+      <c r="I53" s="4" t="n">
+        <v>30529.95</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-61059.8988</v>
       </c>
     </row>
     <row r="54">
@@ -4777,16 +5551,22 @@
           <t>Santander 56175</t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-4104.77</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
+      <c r="F54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,17 +5594,23 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F55" t="n">
+      <c r="F55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="4" t="n">
         <v>-138888.89</v>
       </c>
-      <c r="G55" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
+      <c r="I55" s="4" t="n">
+        <v>11111.11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-22222.2212</v>
       </c>
     </row>
     <row r="56">
@@ -4849,16 +5635,22 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F56" t="n">
+      <c r="F56" s="4" t="n">
         <v>-55.03</v>
       </c>
-      <c r="G56" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
+      <c r="G56" s="4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-17.6048</v>
+      </c>
+      <c r="K56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4886,16 +5678,22 @@
           <t>Infonavit y Sar</t>
         </is>
       </c>
-      <c r="F57" t="n">
+      <c r="F57" s="4" t="n">
         <v>-80448.63</v>
       </c>
-      <c r="G57" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
+      <c r="G57" s="4" t="n">
+        <v>12871.78</v>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-25743.5608</v>
+      </c>
+      <c r="K57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4921,16 +5719,22 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F58" t="n">
+      <c r="F58" s="4" t="n">
         <v>-293.1</v>
       </c>
-      <c r="G58" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
+      <c r="G58" s="4" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-93.79600000000001</v>
+      </c>
+      <c r="K58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,17 +5762,23 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F59" t="n">
+      <c r="F59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="4" t="n">
         <v>-259259.26</v>
       </c>
-      <c r="G59" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
+      <c r="I59" s="4" t="n">
+        <v>20740.74</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-41481.4808</v>
       </c>
     </row>
     <row r="60">
@@ -4995,16 +5805,22 @@
           <t>IVA por Pagar</t>
         </is>
       </c>
-      <c r="F60" t="n">
+      <c r="F60" s="4" t="n">
         <v>-2027</v>
       </c>
-      <c r="G60" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
+      <c r="G60" s="4" t="n">
+        <v>324.32</v>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-648.64</v>
+      </c>
+      <c r="K60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5030,17 +5846,23 @@
           <t>IVA de Gastos 8%</t>
         </is>
       </c>
-      <c r="F61" t="n">
+      <c r="F61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="4" t="n">
         <v>-50</v>
       </c>
-      <c r="G61" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
+      <c r="I61" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="62">
@@ -5067,17 +5889,23 @@
           <t>Compras EF al 8%</t>
         </is>
       </c>
-      <c r="F62" t="n">
+      <c r="F62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="4" t="n">
         <v>-83333.33</v>
       </c>
-      <c r="G62" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
+      <c r="I62" s="4" t="n">
+        <v>6666.67</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-13333.3364</v>
       </c>
     </row>
     <row r="63">
@@ -5104,16 +5932,22 @@
           <t>Santander 56175</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-15000</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
+      <c r="F63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5141,16 +5975,22 @@
           <t>Santander 56175</t>
         </is>
       </c>
-      <c r="F64" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-10000</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
+      <c r="F64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5176,16 +6016,22 @@
           <t>IVA de Gastos 16%</t>
         </is>
       </c>
-      <c r="F65" t="n">
+      <c r="F65" s="4" t="n">
         <v>-764.3200000000001</v>
       </c>
-      <c r="G65" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
+      <c r="G65" s="4" t="n">
+        <v>122.29</v>
+      </c>
+      <c r="H65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-244.5812</v>
+      </c>
+      <c r="K65" t="n">
         <v>0</v>
       </c>
     </row>
